--- a/excel file.xlsx
+++ b/excel file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Courses &amp; Programs\Financial Modeling and Valuation Analyst (FMVA)\03. Building a Financial Model in Excel\Attachment\Current Version 1 2018-07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tae-moonshotvc\Desktop\Test Git with other content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BDA1A5-8947-4968-BD7F-4298E443223E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D553A12-5971-434C-BE19-D317AF04271D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="23" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover Page'!$B$3:$O$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,6 +60,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -378,12 +381,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000_ ;\-0.0000\ "/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000_ ;\-0.0000\ "/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -643,7 +646,7 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -651,89 +654,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -741,143 +744,137 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1293,497 +1290,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D28510-D4FF-4676-968A-5FC2C5D4CC93}">
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" style="72" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="72" customWidth="1"/>
-    <col min="4" max="22" width="11" style="72" customWidth="1"/>
-    <col min="23" max="25" width="9.1796875" style="72"/>
-    <col min="26" max="26" width="9.1796875" style="72" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="72"/>
+    <col min="1" max="2" width="11" style="70" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="70" customWidth="1"/>
+    <col min="4" max="22" width="11" style="70" customWidth="1"/>
+    <col min="23" max="25" width="9.21875" style="70"/>
+    <col min="26" max="26" width="9.21875" style="70" customWidth="1"/>
+    <col min="27" max="16384" width="9.21875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-    </row>
-    <row r="4" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-    </row>
-    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-    </row>
-    <row r="6" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-    </row>
-    <row r="7" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-    </row>
-    <row r="8" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-    </row>
-    <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-    </row>
-    <row r="10" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-    </row>
-    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-    </row>
-    <row r="12" spans="2:15" ht="27" x14ac:dyDescent="0.5">
-      <c r="B12" s="73"/>
-      <c r="C12" s="74" t="s">
+    <row r="1" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+    </row>
+    <row r="4" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+    </row>
+    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+    </row>
+    <row r="6" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+    </row>
+    <row r="7" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+    </row>
+    <row r="8" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+    </row>
+    <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+    </row>
+    <row r="10" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+    </row>
+    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+    </row>
+    <row r="12" spans="2:15" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="75" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="73"/>
-    </row>
-    <row r="13" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="73"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-    </row>
-    <row r="14" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="77" t="s">
+      <c r="O12" s="71"/>
+    </row>
+    <row r="13" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="71"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+    </row>
+    <row r="14" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="71"/>
+      <c r="C14" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-    </row>
-    <row r="15" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="73"/>
-      <c r="C15" s="87" t="str">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+    </row>
+    <row r="15" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="71"/>
+      <c r="C15" s="85" t="str">
         <f ca="1">RIGHT(CELL("filename",'Three Statement Model'!A1),LEN(CELL("filename",'Three Statement Model'!A1))-FIND("]",CELL("filename",'Three Statement Model'!A1)))</f>
         <v>Three Statement Model</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-    </row>
-    <row r="16" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="73"/>
-      <c r="C16" s="88" t="str">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+    </row>
+    <row r="16" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="71"/>
+      <c r="C16" s="86" t="str">
         <f ca="1">RIGHT(CELL("filename",'Raw Data'!A1),LEN(CELL("filename",'Raw Data'!A1))-FIND("]",CELL("filename",'Raw Data'!A1)))</f>
         <v>Raw Data</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-    </row>
-    <row r="17" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-    </row>
-    <row r="18" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-    </row>
-    <row r="19" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="73"/>
-      <c r="C19" s="73" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+    </row>
+    <row r="17" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="71"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+    </row>
+    <row r="18" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="71"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+    </row>
+    <row r="19" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-    </row>
-    <row r="20" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="79" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+    </row>
+    <row r="20" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="71"/>
+      <c r="C20" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="73"/>
-    </row>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="73" t="s">
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="71"/>
+    </row>
+    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-    </row>
-    <row r="22" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="80" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+    </row>
+    <row r="22" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="71"/>
+      <c r="C22" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-    </row>
-    <row r="23" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-    </row>
-    <row r="24" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="81"/>
-      <c r="C24" s="83" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+    </row>
+    <row r="23" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+    </row>
+    <row r="24" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="79"/>
+      <c r="C24" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="81"/>
-    </row>
-    <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86" t="s">
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="79"/>
+    </row>
+    <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="83"/>
+      <c r="C25" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="85"/>
-    </row>
-    <row r="26" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="85"/>
-      <c r="C26" s="86" t="s">
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="83"/>
+    </row>
+    <row r="26" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="83"/>
+      <c r="C26" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="85"/>
-    </row>
-    <row r="27" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="85"/>
-      <c r="C27" s="86" t="s">
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="83"/>
+    </row>
+    <row r="27" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="83"/>
+      <c r="C27" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="85"/>
-    </row>
-    <row r="28" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="85"/>
-    </row>
-    <row r="29" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-    </row>
-    <row r="30" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="83"/>
+    </row>
+    <row r="28" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="83"/>
+    </row>
+    <row r="29" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+    </row>
+    <row r="30" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C15" location="'Three Statement Model'!A1" display="'Three Statement Model'!A1" xr:uid="{E2267473-2A83-4CE8-8FCB-31BD87603823}"/>
@@ -1800,83 +1797,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="10" customWidth="1"/>
-    <col min="4" max="13" width="11.54296875" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="12.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="10" customWidth="1"/>
+    <col min="4" max="13" width="11.5546875" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.21875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="61" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-    </row>
-    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="58" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="66">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="64">
         <v>2013</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="64">
         <f>+D2+1</f>
         <v>2014</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="64">
         <f t="shared" ref="F2:M2" si="0">+E2+1</f>
         <v>2015</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="64">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="H2" s="66">
+      <c r="H2" s="64">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="61">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="J2" s="63">
+      <c r="J2" s="61">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="K2" s="63">
+      <c r="K2" s="61">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="L2" s="63">
+      <c r="L2" s="61">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="M2" s="63">
+      <c r="M2" s="61">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
@@ -1884,7 +1881,7 @@
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
@@ -1929,24 +1926,24 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -1958,7 +1955,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>75</v>
       </c>
@@ -1973,7 +1970,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
@@ -1990,7 +1987,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -2007,7 +2004,7 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
@@ -2024,7 +2021,7 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -2041,7 +2038,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
@@ -2058,7 +2055,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -2075,7 +2072,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
     </row>
-    <row r="14" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>63</v>
       </c>
@@ -2092,7 +2089,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>64</v>
       </c>
@@ -2108,7 +2105,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
@@ -2124,7 +2121,7 @@
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
     </row>
-    <row r="17" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
@@ -2140,7 +2137,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
@@ -2155,7 +2152,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>69</v>
       </c>
@@ -2170,7 +2167,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
@@ -2185,7 +2182,7 @@
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2197,7 +2194,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" collapsed="1" x14ac:dyDescent="0.3">
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -2209,24 +2206,24 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="1:13" ht="20" x14ac:dyDescent="0.4">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A23" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-    </row>
-    <row r="24" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+    </row>
+    <row r="24" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="12"/>
@@ -2241,258 +2238,368 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="D25" s="68">
+        <v>102007</v>
+      </c>
+      <c r="E25" s="68">
+        <v>118086</v>
+      </c>
+      <c r="F25" s="68">
+        <v>131345</v>
+      </c>
+      <c r="G25" s="68">
+        <v>142341</v>
+      </c>
+      <c r="H25" s="68">
+        <v>150772</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="D26" s="68">
+        <v>39023</v>
+      </c>
+      <c r="E26" s="68">
+        <v>48004</v>
+      </c>
+      <c r="F26" s="68">
+        <v>49123</v>
+      </c>
+      <c r="G26" s="68">
+        <v>52654</v>
+      </c>
+      <c r="H26" s="68">
+        <v>56710</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="68">
+        <v>62984</v>
+      </c>
+      <c r="E27" s="68">
+        <v>70082</v>
+      </c>
+      <c r="F27" s="68">
+        <v>82222</v>
+      </c>
+      <c r="G27" s="68">
+        <v>89687</v>
+      </c>
+      <c r="H27" s="68">
+        <v>94062</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="D29" s="68">
+        <v>26427</v>
+      </c>
+      <c r="E29" s="68">
+        <v>22658</v>
+      </c>
+      <c r="F29" s="68">
+        <v>23872</v>
+      </c>
+      <c r="G29" s="68">
+        <v>23002</v>
+      </c>
+      <c r="H29" s="68">
+        <v>25245</v>
+      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="D30" s="68">
+        <v>10963</v>
+      </c>
+      <c r="E30" s="68">
+        <v>10125</v>
+      </c>
+      <c r="F30" s="68">
+        <v>10087</v>
+      </c>
+      <c r="G30" s="68">
+        <v>11020</v>
+      </c>
+      <c r="H30" s="68">
+        <v>11412</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="68">
+        <v>19500</v>
+      </c>
+      <c r="E31" s="68">
+        <v>18150</v>
+      </c>
+      <c r="F31" s="68">
+        <v>17205</v>
+      </c>
+      <c r="G31" s="68">
+        <v>16544</v>
+      </c>
+      <c r="H31" s="68">
+        <v>16080</v>
+      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-    </row>
-    <row r="33" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="68">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="68">
+        <v>2500</v>
+      </c>
+      <c r="F32" s="68">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="68">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="68">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+    </row>
+    <row r="33" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+      <c r="D33" s="68">
+        <v>59390</v>
+      </c>
+      <c r="E33" s="68">
+        <v>53433</v>
+      </c>
+      <c r="F33" s="68">
+        <v>52664</v>
+      </c>
+      <c r="G33" s="68">
+        <v>52066</v>
+      </c>
+      <c r="H33" s="68">
+        <v>54237</v>
+      </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-    </row>
-    <row r="35" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="68">
+        <v>3594</v>
+      </c>
+      <c r="E34" s="68">
+        <v>16649</v>
+      </c>
+      <c r="F34" s="68">
+        <v>29558</v>
+      </c>
+      <c r="G34" s="68">
+        <v>37621</v>
+      </c>
+      <c r="H34" s="68">
+        <v>39825</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+    </row>
+    <row r="35" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-    </row>
-    <row r="37" spans="1:13" ht="16" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="41" t="s">
+      <c r="D36" s="68">
+        <v>1120</v>
+      </c>
+      <c r="E36" s="68">
+        <v>4858</v>
+      </c>
+      <c r="F36" s="68">
+        <v>8483</v>
+      </c>
+      <c r="G36" s="68">
+        <v>10908</v>
+      </c>
+      <c r="H36" s="68">
+        <v>11598</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.2" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-    </row>
-    <row r="38" spans="1:13" ht="16" hidden="1" outlineLevel="1" collapsed="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="68">
+        <v>2474</v>
+      </c>
+      <c r="E37" s="68">
+        <v>11791</v>
+      </c>
+      <c r="F37" s="68">
+        <v>21075</v>
+      </c>
+      <c r="G37" s="68">
+        <v>26713</v>
+      </c>
+      <c r="H37" s="68">
+        <v>28227</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.2" outlineLevel="1" collapsed="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:13" ht="20" x14ac:dyDescent="0.4">
-      <c r="A40" s="69" t="s">
+    <row r="40" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A40" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-    </row>
-    <row r="41" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+    </row>
+    <row r="41" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>10</v>
       </c>
@@ -2502,45 +2609,45 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="44"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="44"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-    </row>
-    <row r="45" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+    </row>
+    <row r="45" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>13</v>
       </c>
@@ -2550,24 +2657,24 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:13" ht="16" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:13" ht="16.2" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-    </row>
-    <row r="48" spans="1:13" ht="16" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.2" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="12"/>
@@ -2582,29 +2689,29 @@
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
     </row>
-    <row r="49" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>22</v>
       </c>
@@ -2614,24 +2721,24 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-    </row>
-    <row r="53" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+    </row>
+    <row r="53" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>28</v>
       </c>
@@ -2641,7 +2748,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>29</v>
       </c>
@@ -2651,7 +2758,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>30</v>
       </c>
@@ -2661,104 +2768,104 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="46" t="s">
+    <row r="56" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-    </row>
-    <row r="57" spans="1:13" ht="16" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="41" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+    </row>
+    <row r="57" spans="1:13" ht="16.2" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-    </row>
-    <row r="58" spans="1:13" ht="16" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+    </row>
+    <row r="58" spans="1:13" ht="16.2" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="49" t="s">
+    <row r="59" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-    </row>
-    <row r="60" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-    </row>
-    <row r="61" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+    </row>
+    <row r="60" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+    </row>
+    <row r="61" spans="1:13" collapsed="1" x14ac:dyDescent="0.3">
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:13" ht="20" x14ac:dyDescent="0.4">
-      <c r="A62" s="69" t="s">
+    <row r="62" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A62" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-    </row>
-    <row r="63" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+    </row>
+    <row r="63" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="D63" s="29"/>
       <c r="E63" s="11"/>
@@ -2766,7 +2873,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>32</v>
       </c>
@@ -2776,7 +2883,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>8</v>
       </c>
@@ -2786,7 +2893,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2903,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>37</v>
       </c>
@@ -2806,24 +2913,24 @@
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B68" s="5"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34"/>
-    </row>
-    <row r="69" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="50"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+    </row>
+    <row r="69" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="28"/>
       <c r="B69" s="7"/>
       <c r="C69" s="20"/>
@@ -2838,54 +2945,54 @@
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
     </row>
-    <row r="70" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="5"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-    </row>
-    <row r="73" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="50"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+    </row>
+    <row r="73" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="7"/>
       <c r="C73" s="20"/>
@@ -2900,69 +3007,69 @@
       <c r="L73" s="28"/>
       <c r="M73" s="28"/>
     </row>
-    <row r="74" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-    </row>
-    <row r="78" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="50"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+    </row>
+    <row r="78" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="7"/>
       <c r="C78" s="20"/>
@@ -2977,54 +3084,54 @@
       <c r="L78" s="28"/>
       <c r="M78" s="28"/>
     </row>
-    <row r="79" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-    </row>
-    <row r="80" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+    </row>
+    <row r="80" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-    </row>
-    <row r="82" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="50"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+    </row>
+    <row r="82" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
@@ -3032,7 +3139,7 @@
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
     </row>
-    <row r="83" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="D83" s="29"/>
       <c r="E83" s="11"/>
@@ -3040,38 +3147,38 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" collapsed="1" x14ac:dyDescent="0.3">
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.4">
-      <c r="A85" s="69" t="s">
+    <row r="85" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A85" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="67"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-    </row>
-    <row r="86" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="65"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+    </row>
+    <row r="86" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>51</v>
       </c>
@@ -3081,7 +3188,7 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>12</v>
       </c>
@@ -3096,7 +3203,7 @@
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
     </row>
-    <row r="89" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>18</v>
       </c>
@@ -3111,7 +3218,7 @@
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
     </row>
-    <row r="90" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>21</v>
       </c>
@@ -3126,24 +3233,24 @@
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
     </row>
-    <row r="91" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="54"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="54"/>
-      <c r="J91" s="54"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-    </row>
-    <row r="92" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C91" s="50"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+    </row>
+    <row r="92" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>35</v>
       </c>
@@ -3158,7 +3265,7 @@
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
     </row>
-    <row r="93" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
@@ -3170,7 +3277,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>52</v>
       </c>
@@ -3185,7 +3292,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>14</v>
       </c>
@@ -3200,7 +3307,7 @@
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
     </row>
-    <row r="96" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>15</v>
       </c>
@@ -3215,11 +3322,11 @@
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
     </row>
-    <row r="97" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="44"/>
+      <c r="C97" s="42"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
@@ -3231,24 +3338,24 @@
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
     </row>
-    <row r="98" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-    </row>
-    <row r="99" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="50"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+    </row>
+    <row r="99" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
@@ -3260,7 +3367,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>53</v>
       </c>
@@ -3275,7 +3382,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>23</v>
       </c>
@@ -3290,7 +3397,7 @@
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
     </row>
-    <row r="102" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>24</v>
       </c>
@@ -3305,28 +3412,28 @@
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
     </row>
-    <row r="103" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B103" s="5"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-    </row>
-    <row r="104" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C103" s="50"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+    </row>
+    <row r="104" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C104" s="44"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -3338,80 +3445,80 @@
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
     </row>
-    <row r="105" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" collapsed="1" x14ac:dyDescent="0.3">
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:13" ht="20" x14ac:dyDescent="0.4">
-      <c r="A108" s="69" t="s">
+    <row r="108" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A108" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="B108" s="67"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="67"/>
-      <c r="K108" s="67"/>
-      <c r="L108" s="67"/>
-      <c r="M108" s="67"/>
-    </row>
-    <row r="109" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="D111" s="71"/>
-      <c r="E111" s="71"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
-      <c r="K111" s="71"/>
-      <c r="L111" s="71"/>
-      <c r="M111" s="71"/>
-    </row>
-    <row r="112" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="113" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="116" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="117" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="118" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="119" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="121" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="122" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="123" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="124" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="125" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="126" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="127" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="128" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="129" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="130" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="131" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="132" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="133" collapsed="1" x14ac:dyDescent="0.35"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
+      <c r="L108" s="65"/>
+      <c r="M108" s="65"/>
+    </row>
+    <row r="109" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+    </row>
+    <row r="112" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="113" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="114" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="115" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="116" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="117" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="118" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="119" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="120" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="121" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="122" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="123" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="124" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="125" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="126" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="127" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="128" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="129" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="130" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="131" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="132" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="133" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="D3:M3">
@@ -3435,798 +3542,800 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05759738-C4DE-4E91-844C-DA236FA36EC6}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.08984375" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.109375" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="70">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="68">
         <v>2013</v>
       </c>
-      <c r="C1" s="70">
+      <c r="C1" s="68">
         <v>2014</v>
       </c>
-      <c r="D1" s="70">
+      <c r="D1" s="68">
         <v>2015</v>
       </c>
-      <c r="E1" s="70">
+      <c r="E1" s="68">
         <v>2016</v>
       </c>
-      <c r="F1" s="70">
+      <c r="F1" s="68">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="68">
         <v>102007</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="68">
         <v>118086</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="68">
         <v>131345</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="68">
         <v>142341</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="68">
         <v>150772</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="68">
         <v>39023</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="68">
         <v>48004</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="68">
         <v>49123</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="68">
         <v>52654</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="68">
         <v>56710</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="68">
         <v>62984</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="68">
         <v>70082</v>
       </c>
-      <c r="D5" s="70">
+      <c r="D5" s="68">
         <v>82222</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="68">
         <v>89687</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="68">
         <v>94062</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="70">
+      <c r="B7" s="68">
         <v>26427</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="68">
         <v>22658</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="68">
         <v>23872</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <v>23002</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="68">
         <v>25245</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="68">
         <v>10963</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="68">
         <v>10125</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="68">
         <v>10087</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="68">
         <v>11020</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="68">
         <v>11412</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="68">
         <v>19500</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="68">
         <v>18150</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="68">
         <v>17205</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="68">
         <v>16544</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="68">
         <v>16080</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="68">
         <v>2500</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="68">
         <v>2500</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="68">
         <v>1500</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="68">
         <v>1500</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="68">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="68">
         <v>59390</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="68">
         <v>53433</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="68">
         <v>52664</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="68">
         <v>52066</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="68">
         <v>54237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="68">
         <v>3594</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="68">
         <v>16649</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="68">
         <v>29558</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="68">
         <v>37621</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="68">
         <v>39825</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="68">
         <v>1120</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="68">
         <v>4858</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="68">
         <v>8483</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="68">
         <v>10908</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="68">
         <v>11598</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="68">
         <v>2474</v>
       </c>
-      <c r="C15" s="70">
+      <c r="C15" s="68">
         <v>11791</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="68">
         <v>21075</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="68">
         <v>26713</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="68">
         <v>28227</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="70">
+      <c r="B21" s="68">
         <v>67971</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="68">
         <v>81210</v>
       </c>
-      <c r="D21" s="70">
+      <c r="D21" s="68">
         <v>83715</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="68">
         <v>111070</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="68">
         <v>139549</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B22" s="68">
         <v>5100</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="68">
         <v>5904</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="68">
         <v>6567</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="68">
         <v>7117</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="68">
         <v>7538</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="68">
         <v>7805</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="68">
         <v>9601</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="68">
         <v>9825</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="68">
         <v>10531</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="68">
         <v>11342</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="68">
         <v>45500.000000000007</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="68">
         <v>42350.000000000007</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="68">
         <v>40145.000000000007</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="68">
         <v>38601.000000000007</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="68">
         <v>37521.000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="70">
+      <c r="B25" s="68">
         <v>126376</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="68">
         <v>139065</v>
       </c>
-      <c r="D25" s="70">
+      <c r="D25" s="68">
         <v>140252</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="68">
         <v>167319</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="68">
         <v>195950</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="70">
+      <c r="B28" s="68">
         <v>3902</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="68">
         <v>4800</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="68">
         <v>4912</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="68">
         <v>5266</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="68">
         <v>5670</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="70">
+      <c r="B29" s="68">
         <v>50000</v>
       </c>
-      <c r="C29" s="70">
+      <c r="C29" s="68">
         <v>50000</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="68">
         <v>30000</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="68">
         <v>30000</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="68">
         <v>30000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="70">
+      <c r="B30" s="68">
         <v>53902</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="68">
         <v>54800</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="68">
         <v>34912</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="68">
         <v>35266</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="68">
         <v>35670</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="70">
+      <c r="B32" s="68">
         <v>70000</v>
       </c>
-      <c r="C32" s="70">
+      <c r="C32" s="68">
         <v>70000</v>
       </c>
-      <c r="D32" s="70">
+      <c r="D32" s="68">
         <v>70000</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="68">
         <v>70000</v>
       </c>
-      <c r="F32" s="70">
+      <c r="F32" s="68">
         <v>70000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="70">
+      <c r="B33" s="68">
         <v>2474</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="68">
         <v>14265</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="68">
         <v>35340</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="68">
         <v>62053</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="68">
         <v>90280</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="70">
+      <c r="B34" s="68">
         <v>72474</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="68">
         <v>84265</v>
       </c>
-      <c r="D34" s="70">
+      <c r="D34" s="68">
         <v>105340</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="68">
         <v>132053</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="68">
         <v>160280</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="70">
+      <c r="B35" s="68">
         <v>126376</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="68">
         <v>139065</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="68">
         <v>140252</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="68">
         <v>167319</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="68">
         <v>195950</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="70">
+      <c r="B37" s="68">
         <v>0</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="68">
         <v>0</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="68">
         <v>0</v>
       </c>
-      <c r="E37" s="70">
+      <c r="E37" s="68">
         <v>0</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="68">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="70">
+      <c r="B43" s="68">
         <v>2474</v>
       </c>
-      <c r="C43" s="70">
+      <c r="C43" s="68">
         <v>11791</v>
       </c>
-      <c r="D43" s="70">
+      <c r="D43" s="68">
         <v>21075</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="68">
         <v>26713</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="68">
         <v>28227</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="70">
+      <c r="B44" s="68">
         <v>19500</v>
       </c>
-      <c r="C44" s="70">
+      <c r="C44" s="68">
         <v>18150</v>
       </c>
-      <c r="D44" s="70">
+      <c r="D44" s="68">
         <v>17205</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="68">
         <v>16544</v>
       </c>
-      <c r="F44" s="70">
+      <c r="F44" s="68">
         <v>16080</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="70">
+      <c r="B45" s="68">
         <v>9003</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="68">
         <v>1702</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="68">
         <v>775</v>
       </c>
-      <c r="E45" s="70">
+      <c r="E45" s="68">
         <v>902</v>
       </c>
-      <c r="F45" s="70">
+      <c r="F45" s="68">
         <v>828</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="70">
+      <c r="B46" s="68">
         <v>12971</v>
       </c>
-      <c r="C46" s="70">
+      <c r="C46" s="68">
         <v>28239</v>
       </c>
-      <c r="D46" s="70">
+      <c r="D46" s="68">
         <v>37505</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="68">
         <v>42355</v>
       </c>
-      <c r="F46" s="70">
+      <c r="F46" s="68">
         <v>43479</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="70">
+      <c r="B49" s="68">
         <v>15000</v>
       </c>
-      <c r="C49" s="70">
+      <c r="C49" s="68">
         <v>15000</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="68">
         <v>15000</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="68">
         <v>15000</v>
       </c>
-      <c r="F49" s="70">
+      <c r="F49" s="68">
         <v>15000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="70">
+      <c r="B50" s="68">
         <v>15000</v>
       </c>
-      <c r="C50" s="70">
+      <c r="C50" s="68">
         <v>15000</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="68">
         <v>15000</v>
       </c>
-      <c r="E50" s="70">
+      <c r="E50" s="68">
         <v>15000</v>
       </c>
-      <c r="F50" s="70">
+      <c r="F50" s="68">
         <v>15000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="70">
+      <c r="B53" s="68">
         <v>0</v>
       </c>
-      <c r="C53" s="70">
+      <c r="C53" s="68">
         <v>0</v>
       </c>
-      <c r="D53" s="70">
+      <c r="D53" s="68">
         <v>-20000</v>
       </c>
-      <c r="E53" s="70">
+      <c r="E53" s="68">
         <v>0</v>
       </c>
-      <c r="F53" s="70">
+      <c r="F53" s="68">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="70">
+      <c r="B54" s="68">
         <v>70000</v>
       </c>
-      <c r="C54" s="70">
+      <c r="C54" s="68">
         <v>0</v>
       </c>
-      <c r="D54" s="70">
+      <c r="D54" s="68">
         <v>0</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E54" s="68">
         <v>0</v>
       </c>
-      <c r="F54" s="70">
+      <c r="F54" s="68">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="70">
+      <c r="B55" s="68">
         <v>70000</v>
       </c>
-      <c r="C55" s="70">
+      <c r="C55" s="68">
         <v>0</v>
       </c>
-      <c r="D55" s="70">
+      <c r="D55" s="68">
         <v>-20000</v>
       </c>
-      <c r="E55" s="70">
+      <c r="E55" s="68">
         <v>0</v>
       </c>
-      <c r="F55" s="70">
+      <c r="F55" s="68">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="70">
+      <c r="B57" s="68">
         <v>67971</v>
       </c>
-      <c r="C57" s="70">
+      <c r="C57" s="68">
         <v>13239</v>
       </c>
-      <c r="D57" s="70">
+      <c r="D57" s="68">
         <v>2505</v>
       </c>
-      <c r="E57" s="70">
+      <c r="E57" s="68">
         <v>27355</v>
       </c>
-      <c r="F57" s="70">
+      <c r="F57" s="68">
         <v>28479</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="70">
+      <c r="B58" s="68">
         <v>0</v>
       </c>
-      <c r="C58" s="70">
+      <c r="C58" s="68">
         <v>67971</v>
       </c>
-      <c r="D58" s="70">
+      <c r="D58" s="68">
         <v>81210</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="68">
         <v>83715</v>
       </c>
-      <c r="F58" s="70">
+      <c r="F58" s="68">
         <v>111070</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="70">
+      <c r="B59" s="68">
         <v>67971</v>
       </c>
-      <c r="C59" s="70">
+      <c r="C59" s="68">
         <v>81210</v>
       </c>
-      <c r="D59" s="70">
+      <c r="D59" s="68">
         <v>83715</v>
       </c>
-      <c r="E59" s="70">
+      <c r="E59" s="68">
         <v>111070</v>
       </c>
-      <c r="F59" s="70">
+      <c r="F59" s="68">
         <v>139549</v>
       </c>
     </row>
